--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -68,16 +68,29 @@
     <t>NO.10</t>
   </si>
   <si>
-    <t>Benaglore</t>
-  </si>
-  <si>
     <t>560023</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Tester984</t>
+  </si>
+  <si>
+    <t>tester984@gmail.com</t>
+  </si>
+  <si>
+    <t>7975433984</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -418,19 +431,19 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="7.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -479,10 +492,10 @@
         <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>6</v>
@@ -495,14 +508,30 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="6135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -74,27 +70,31 @@
     <t>Bangalore</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Tester984</t>
-  </si>
-  <si>
-    <t>tester984@gmail.com</t>
-  </si>
-  <si>
-    <t>7975433984</t>
+    <t>Tester573</t>
+  </si>
+  <si>
+    <t>tester573@gmail.com</t>
+  </si>
+  <si>
+    <t>7975433573</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -138,18 +138,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -431,19 +434,19 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="7.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="1" max="1" width="7.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -508,28 +511,28 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -659,6 +662,9 @@
       <c r="I14" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>